--- a/va_facility_data_2025-02-20/Dyersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dyersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dyersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dyersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc51d94ae8bf449908475f9b1303f70c0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R352652ebadeb4c98b36a7c3c6fb9170f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R04a8983d8e11421693583adb4d2f0b4c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Raef80d2a4768474a9b435ec2da0abb70"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R06f2ab93bf0845a78ee8df58be44f48e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbd9236e5ee384c7d8ec0b43a781fc8fb"/>
   </x:sheets>
 </x:workbook>
 </file>
